--- a/vocabulary_convert/AWL-DETVN.xlsx
+++ b/vocabulary_convert/AWL-DETVN.xlsx
@@ -7397,15 +7397,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="true">
+  <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:Z573"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="3" topLeftCell="A464" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="G538" activeCellId="0" sqref="G538"/>
+      <selection pane="bottomLeft" activeCell="H7" activeCellId="0" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -7601,7 +7601,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="8" t="s">
         <v>28</v>
       </c>
@@ -7625,7 +7625,7 @@
       </c>
       <c r="H7" s="8"/>
     </row>
-    <row r="8" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="8" t="s">
         <v>32</v>
       </c>
@@ -7649,7 +7649,7 @@
       </c>
       <c r="H8" s="8"/>
     </row>
-    <row r="9" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="8" t="s">
         <v>37</v>
       </c>
@@ -7673,7 +7673,7 @@
       </c>
       <c r="H9" s="8"/>
     </row>
-    <row r="10" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="8" t="s">
         <v>41</v>
       </c>
@@ -7723,7 +7723,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="8" t="s">
         <v>50</v>
       </c>
@@ -7747,7 +7747,7 @@
       </c>
       <c r="H12" s="8"/>
     </row>
-    <row r="13" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="8" t="s">
         <v>54</v>
       </c>
@@ -7771,7 +7771,7 @@
       </c>
       <c r="H13" s="8"/>
     </row>
-    <row r="14" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="8" t="s">
         <v>59</v>
       </c>
@@ -7925,7 +7925,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="8" t="s">
         <v>83</v>
       </c>
@@ -8079,7 +8079,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="8" t="s">
         <v>111</v>
       </c>
@@ -8129,7 +8129,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="8" t="s">
         <v>119</v>
       </c>
@@ -8179,7 +8179,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="8" t="s">
         <v>128</v>
       </c>
@@ -8229,7 +8229,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="8" t="s">
         <v>136</v>
       </c>
@@ -8279,7 +8279,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="8" t="s">
         <v>144</v>
       </c>
@@ -8303,7 +8303,7 @@
       </c>
       <c r="H34" s="8"/>
     </row>
-    <row r="35" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="8" t="s">
         <v>148</v>
       </c>
@@ -8327,7 +8327,7 @@
       </c>
       <c r="H35" s="8"/>
     </row>
-    <row r="36" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="8" t="s">
         <v>153</v>
       </c>
@@ -8350,7 +8350,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="8" t="s">
         <v>157</v>
       </c>
@@ -8399,7 +8399,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="8" t="s">
         <v>165</v>
       </c>
@@ -8422,7 +8422,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="8" t="s">
         <v>169</v>
       </c>
@@ -8445,7 +8445,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="8" t="s">
         <v>173</v>
       </c>
@@ -8598,7 +8598,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="8" t="s">
         <v>198</v>
       </c>
@@ -8621,7 +8621,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="8" t="s">
         <v>202</v>
       </c>
@@ -8644,7 +8644,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="8" t="s">
         <v>206</v>
       </c>
@@ -8667,7 +8667,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="8" t="s">
         <v>210</v>
       </c>
@@ -8794,7 +8794,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="8" t="s">
         <v>230</v>
       </c>
@@ -8817,7 +8817,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="8" t="s">
         <v>234</v>
       </c>
@@ -8840,7 +8840,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="8" t="s">
         <v>238</v>
       </c>
@@ -8889,7 +8889,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="8" t="s">
         <v>246</v>
       </c>
@@ -8912,7 +8912,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="8" t="s">
         <v>250</v>
       </c>
@@ -8935,7 +8935,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="61" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="8" t="s">
         <v>254</v>
       </c>
@@ -8958,7 +8958,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="62" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="8" t="s">
         <v>258</v>
       </c>
@@ -8981,7 +8981,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="63" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="8" t="s">
         <v>262</v>
       </c>
@@ -9030,7 +9030,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="65" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="8" t="s">
         <v>271</v>
       </c>
@@ -9077,7 +9077,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="67" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="67" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="8" t="s">
         <v>279</v>
       </c>
@@ -9100,7 +9100,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="68" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="68" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="8" t="s">
         <v>283</v>
       </c>
@@ -9123,7 +9123,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="69" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="69" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="8" t="s">
         <v>287</v>
       </c>
@@ -9172,7 +9172,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="71" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="71" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="8" t="s">
         <v>295</v>
       </c>
@@ -9221,7 +9221,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="73" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="73" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="9" t="s">
         <v>303</v>
       </c>
@@ -9244,7 +9244,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="74" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="74" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="9" t="s">
         <v>307</v>
       </c>
@@ -9267,7 +9267,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="75" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="75" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="9" t="s">
         <v>311</v>
       </c>
@@ -9316,7 +9316,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="77" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="77" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="9" t="s">
         <v>319</v>
       </c>
@@ -9339,7 +9339,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="78" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="78" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="9" t="s">
         <v>323</v>
       </c>
@@ -9362,7 +9362,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="79" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="79" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="9" t="s">
         <v>327</v>
       </c>
@@ -9385,7 +9385,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="80" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="80" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="9" t="s">
         <v>331</v>
       </c>
@@ -9434,7 +9434,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="82" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="82" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="9" t="s">
         <v>339</v>
       </c>
@@ -9509,7 +9509,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="85" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="85" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="8" t="s">
         <v>351</v>
       </c>
@@ -9532,7 +9532,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="86" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="86" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="8" t="s">
         <v>355</v>
       </c>
@@ -9555,7 +9555,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="87" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="87" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="8" t="s">
         <v>359</v>
       </c>
@@ -9578,7 +9578,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="88" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="88" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="8" t="s">
         <v>363</v>
       </c>
@@ -9679,7 +9679,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="92" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="92" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="8" t="s">
         <v>378</v>
       </c>
@@ -9702,7 +9702,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="93" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="93" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="8" t="s">
         <v>382</v>
       </c>
@@ -9725,7 +9725,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="94" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="94" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="8" t="s">
         <v>386</v>
       </c>
@@ -9800,7 +9800,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="97" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="97" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="8" t="s">
         <v>398</v>
       </c>
@@ -9823,7 +9823,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="98" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="98" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="8" t="s">
         <v>402</v>
       </c>
@@ -9872,7 +9872,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="100" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="100" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="8" t="s">
         <v>410</v>
       </c>
@@ -9895,7 +9895,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="101" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="101" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="8" t="s">
         <v>413</v>
       </c>
@@ -9918,7 +9918,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="102" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="102" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="8" t="s">
         <v>417</v>
       </c>
@@ -9967,7 +9967,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="104" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="104" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="8" t="s">
         <v>425</v>
       </c>
@@ -9990,7 +9990,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="105" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="105" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="8" t="s">
         <v>429</v>
       </c>
@@ -10013,7 +10013,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="106" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="106" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="8" t="s">
         <v>433</v>
       </c>
@@ -10114,7 +10114,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="110" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="110" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="8" t="s">
         <v>449</v>
       </c>
@@ -10137,7 +10137,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="111" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="111" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="8" t="s">
         <v>453</v>
       </c>
@@ -10160,7 +10160,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="112" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="112" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="8" t="s">
         <v>456</v>
       </c>
@@ -10183,7 +10183,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="113" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="113" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="8" t="s">
         <v>460</v>
       </c>
@@ -10206,7 +10206,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="114" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="114" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="8" t="s">
         <v>464</v>
       </c>
@@ -10229,7 +10229,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="115" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="115" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="8" t="s">
         <v>468</v>
       </c>
@@ -10252,7 +10252,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="116" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="116" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="8" t="s">
         <v>472</v>
       </c>
@@ -10301,7 +10301,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="118" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="118" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="8" t="s">
         <v>481</v>
       </c>
@@ -10324,7 +10324,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="119" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="119" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="8" t="s">
         <v>485</v>
       </c>
@@ -10425,7 +10425,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="123" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="123" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="8" t="s">
         <v>501</v>
       </c>
@@ -10448,7 +10448,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="124" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="124" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="8" t="s">
         <v>505</v>
       </c>
@@ -10523,7 +10523,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="127" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="127" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="8" t="s">
         <v>518</v>
       </c>
@@ -10572,7 +10572,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="129" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="129" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="8" t="s">
         <v>526</v>
       </c>
@@ -10595,7 +10595,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="130" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="130" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="8" t="s">
         <v>530</v>
       </c>
@@ -10618,7 +10618,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="131" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="131" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="8" t="s">
         <v>534</v>
       </c>
@@ -10641,7 +10641,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="132" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="132" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="8" t="s">
         <v>538</v>
       </c>
@@ -10664,7 +10664,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="133" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="133" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="8" t="s">
         <v>542</v>
       </c>
@@ -10687,7 +10687,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="134" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="134" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="8" t="s">
         <v>546</v>
       </c>
@@ -10710,7 +10710,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="135" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="135" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="8" t="s">
         <v>550</v>
       </c>
@@ -10759,7 +10759,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="137" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="137" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="8" t="s">
         <v>558</v>
       </c>
@@ -10782,7 +10782,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="138" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="138" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="8" t="s">
         <v>562</v>
       </c>
@@ -10805,7 +10805,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="139" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="139" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="8" t="s">
         <v>566</v>
       </c>
@@ -10828,7 +10828,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="140" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="140" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="8" t="s">
         <v>570</v>
       </c>
@@ -10903,7 +10903,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="143" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="143" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="8" t="s">
         <v>582</v>
       </c>
@@ -10926,7 +10926,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="144" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="144" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="8" t="s">
         <v>586</v>
       </c>
@@ -10949,7 +10949,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="145" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="145" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="8" t="s">
         <v>590</v>
       </c>
@@ -10972,7 +10972,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="146" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="146" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="8" t="s">
         <v>594</v>
       </c>
@@ -10995,7 +10995,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="147" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="147" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="8" t="s">
         <v>598</v>
       </c>
@@ -11044,7 +11044,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="149" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="149" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="8" t="s">
         <v>606</v>
       </c>
@@ -11067,7 +11067,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="150" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="150" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="8" t="s">
         <v>610</v>
       </c>
@@ -11090,7 +11090,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="151" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="151" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="8" t="s">
         <v>614</v>
       </c>
@@ -11113,7 +11113,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="152" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="152" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="8" t="s">
         <v>619</v>
       </c>
@@ -11136,7 +11136,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="153" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="153" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="8" t="s">
         <v>623</v>
       </c>
@@ -11159,7 +11159,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="154" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="154" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="8" t="s">
         <v>627</v>
       </c>
@@ -11182,7 +11182,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="155" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="155" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="8" t="s">
         <v>631</v>
       </c>
@@ -11309,7 +11309,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="160" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="160" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="8" t="s">
         <v>651</v>
       </c>
@@ -11359,7 +11359,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="162" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="162" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="8" t="s">
         <v>659</v>
       </c>
@@ -11383,7 +11383,7 @@
       </c>
       <c r="H162" s="8"/>
     </row>
-    <row r="163" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="163" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="8" t="s">
         <v>663</v>
       </c>
@@ -11407,7 +11407,7 @@
       </c>
       <c r="H163" s="8"/>
     </row>
-    <row r="164" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="164" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="8" t="s">
         <v>667</v>
       </c>
@@ -11431,7 +11431,7 @@
       </c>
       <c r="H164" s="8"/>
     </row>
-    <row r="165" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="165" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="8" t="s">
         <v>671</v>
       </c>
@@ -11455,7 +11455,7 @@
       </c>
       <c r="H165" s="8"/>
     </row>
-    <row r="166" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="166" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="8" t="s">
         <v>675</v>
       </c>
@@ -11531,7 +11531,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="169" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="169" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="8" t="s">
         <v>686</v>
       </c>
@@ -11555,7 +11555,7 @@
       </c>
       <c r="H169" s="8"/>
     </row>
-    <row r="170" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="170" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="8" t="s">
         <v>690</v>
       </c>
@@ -11605,7 +11605,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="172" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="172" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="8" t="s">
         <v>698</v>
       </c>
@@ -11629,7 +11629,7 @@
       </c>
       <c r="H172" s="8"/>
     </row>
-    <row r="173" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="173" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="8" t="s">
         <v>702</v>
       </c>
@@ -11679,7 +11679,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="175" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="175" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="8" t="s">
         <v>710</v>
       </c>
@@ -11703,7 +11703,7 @@
       </c>
       <c r="H175" s="8"/>
     </row>
-    <row r="176" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="176" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="8" t="s">
         <v>714</v>
       </c>
@@ -11727,7 +11727,7 @@
       </c>
       <c r="H176" s="8"/>
     </row>
-    <row r="177" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="177" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="8" t="s">
         <v>718</v>
       </c>
@@ -11777,7 +11777,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="179" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="179" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="8" t="s">
         <v>726</v>
       </c>
@@ -11801,7 +11801,7 @@
       </c>
       <c r="H179" s="8"/>
     </row>
-    <row r="180" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="180" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="8" t="s">
         <v>730</v>
       </c>
@@ -11851,7 +11851,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="182" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="182" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="8" t="s">
         <v>737</v>
       </c>
@@ -11901,7 +11901,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="184" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="184" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="8" t="s">
         <v>745</v>
       </c>
@@ -11924,7 +11924,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="185" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="185" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="8" t="s">
         <v>750</v>
       </c>
@@ -11973,7 +11973,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="187" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="187" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="8" t="s">
         <v>758</v>
       </c>
@@ -11996,7 +11996,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="188" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="188" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="8" t="s">
         <v>762</v>
       </c>
@@ -12019,7 +12019,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="189" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="189" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="8" t="s">
         <v>766</v>
       </c>
@@ -12042,7 +12042,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="190" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="190" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="8" t="s">
         <v>770</v>
       </c>
@@ -12065,7 +12065,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="191" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="191" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="8" t="s">
         <v>774</v>
       </c>
@@ -12114,7 +12114,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="193" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="193" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="8" t="s">
         <v>782</v>
       </c>
@@ -12163,7 +12163,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="195" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="195" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="8" t="s">
         <v>790</v>
       </c>
@@ -12186,7 +12186,7 @@
         <v>793</v>
       </c>
     </row>
-    <row r="196" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="196" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="8" t="s">
         <v>794</v>
       </c>
@@ -12209,7 +12209,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="197" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="197" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="8" t="s">
         <v>798</v>
       </c>
@@ -12232,7 +12232,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="198" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="198" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="8" t="s">
         <v>802</v>
       </c>
@@ -12255,7 +12255,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="199" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="199" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="8" t="s">
         <v>806</v>
       </c>
@@ -12304,7 +12304,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="201" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="201" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="8" t="s">
         <v>815</v>
       </c>
@@ -12327,7 +12327,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="202" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="202" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="8" t="s">
         <v>819</v>
       </c>
@@ -12350,7 +12350,7 @@
         <v>822</v>
       </c>
     </row>
-    <row r="203" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="203" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="8" t="s">
         <v>823</v>
       </c>
@@ -12399,7 +12399,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="205" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="205" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="8" t="s">
         <v>831</v>
       </c>
@@ -12448,7 +12448,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="207" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="207" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="8" t="s">
         <v>839</v>
       </c>
@@ -12471,7 +12471,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="208" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="208" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="8" t="s">
         <v>843</v>
       </c>
@@ -12494,7 +12494,7 @@
         <v>847</v>
       </c>
     </row>
-    <row r="209" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="209" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="8" t="s">
         <v>848</v>
       </c>
@@ -12517,7 +12517,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="210" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="210" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="8" t="s">
         <v>852</v>
       </c>
@@ -12540,7 +12540,7 @@
         <v>855</v>
       </c>
     </row>
-    <row r="211" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="211" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="8" t="s">
         <v>856</v>
       </c>
@@ -12563,7 +12563,7 @@
         <v>859</v>
       </c>
     </row>
-    <row r="212" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="212" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="8" t="s">
         <v>860</v>
       </c>
@@ -12586,7 +12586,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="213" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="213" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="8" t="s">
         <v>864</v>
       </c>
@@ -12609,7 +12609,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="214" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="214" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="8" t="s">
         <v>868</v>
       </c>
@@ -12632,7 +12632,7 @@
         <v>871</v>
       </c>
     </row>
-    <row r="215" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="215" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="8" t="s">
         <v>872</v>
       </c>
@@ -12707,7 +12707,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="218" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="218" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="8" t="s">
         <v>884</v>
       </c>
@@ -12730,7 +12730,7 @@
         <v>887</v>
       </c>
     </row>
-    <row r="219" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="219" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A219" s="8" t="s">
         <v>888</v>
       </c>
@@ -12753,7 +12753,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="220" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="220" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A220" s="8" t="s">
         <v>891</v>
       </c>
@@ -12802,7 +12802,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="222" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="222" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A222" s="8" t="s">
         <v>899</v>
       </c>
@@ -12825,7 +12825,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="223" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="223" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A223" s="8" t="s">
         <v>903</v>
       </c>
@@ -12848,7 +12848,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="224" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="224" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A224" s="8" t="s">
         <v>907</v>
       </c>
@@ -12923,7 +12923,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="227" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="227" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A227" s="8" t="s">
         <v>919</v>
       </c>
@@ -12946,7 +12946,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="228" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="228" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A228" s="8" t="s">
         <v>923</v>
       </c>
@@ -12969,7 +12969,7 @@
         <v>925</v>
       </c>
     </row>
-    <row r="229" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="229" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A229" s="8" t="s">
         <v>926</v>
       </c>
@@ -13044,7 +13044,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="232" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="232" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A232" s="8" t="s">
         <v>937</v>
       </c>
@@ -13067,7 +13067,7 @@
         <v>940</v>
       </c>
     </row>
-    <row r="233" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="233" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A233" s="8" t="s">
         <v>941</v>
       </c>
@@ -13090,7 +13090,7 @@
         <v>944</v>
       </c>
     </row>
-    <row r="234" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="234" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A234" s="8" t="s">
         <v>945</v>
       </c>
@@ -13113,7 +13113,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="235" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="235" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A235" s="8" t="s">
         <v>949</v>
       </c>
@@ -13136,7 +13136,7 @@
         <v>952</v>
       </c>
     </row>
-    <row r="236" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="236" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A236" s="8" t="s">
         <v>953</v>
       </c>
@@ -13211,7 +13211,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="239" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="239" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A239" s="8" t="s">
         <v>965</v>
       </c>
@@ -13234,7 +13234,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="240" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="240" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A240" s="8" t="s">
         <v>969</v>
       </c>
@@ -13283,7 +13283,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="242" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="242" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A242" s="8" t="s">
         <v>977</v>
       </c>
@@ -13306,7 +13306,7 @@
         <v>980</v>
       </c>
     </row>
-    <row r="243" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="243" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A243" s="8" t="s">
         <v>981</v>
       </c>
@@ -13329,7 +13329,7 @@
         <v>984</v>
       </c>
     </row>
-    <row r="244" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="244" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A244" s="8" t="s">
         <v>985</v>
       </c>
@@ -13353,7 +13353,7 @@
       </c>
       <c r="H244" s="8"/>
     </row>
-    <row r="245" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="245" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A245" s="8" t="s">
         <v>990</v>
       </c>
@@ -13377,7 +13377,7 @@
       </c>
       <c r="H245" s="8"/>
     </row>
-    <row r="246" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="246" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A246" s="8" t="s">
         <v>994</v>
       </c>
@@ -13401,7 +13401,7 @@
       </c>
       <c r="H246" s="8"/>
     </row>
-    <row r="247" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="247" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A247" s="8" t="s">
         <v>998</v>
       </c>
@@ -13425,7 +13425,7 @@
       </c>
       <c r="H247" s="8"/>
     </row>
-    <row r="248" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="248" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A248" s="8" t="s">
         <v>1002</v>
       </c>
@@ -13475,7 +13475,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="250" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="250" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A250" s="8" t="s">
         <v>1010</v>
       </c>
@@ -13499,7 +13499,7 @@
       </c>
       <c r="H250" s="8"/>
     </row>
-    <row r="251" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="251" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A251" s="8" t="s">
         <v>1013</v>
       </c>
@@ -13523,7 +13523,7 @@
       </c>
       <c r="H251" s="8"/>
     </row>
-    <row r="252" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="252" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A252" s="8" t="s">
         <v>1017</v>
       </c>
@@ -13547,7 +13547,7 @@
       </c>
       <c r="H252" s="8"/>
     </row>
-    <row r="253" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="253" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A253" s="8" t="s">
         <v>1021</v>
       </c>
@@ -13571,7 +13571,7 @@
       </c>
       <c r="H253" s="8"/>
     </row>
-    <row r="254" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="254" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A254" s="8" t="s">
         <v>1025</v>
       </c>
@@ -13595,7 +13595,7 @@
       </c>
       <c r="H254" s="8"/>
     </row>
-    <row r="255" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="255" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A255" s="8" t="s">
         <v>1029</v>
       </c>
@@ -13619,7 +13619,7 @@
       </c>
       <c r="H255" s="8"/>
     </row>
-    <row r="256" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="256" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A256" s="8" t="s">
         <v>1033</v>
       </c>
@@ -13643,7 +13643,7 @@
       </c>
       <c r="H256" s="8"/>
     </row>
-    <row r="257" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="257" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A257" s="8" t="s">
         <v>1037</v>
       </c>
@@ -13667,7 +13667,7 @@
       </c>
       <c r="H257" s="8"/>
     </row>
-    <row r="258" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="258" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A258" s="8" t="s">
         <v>1041</v>
       </c>
@@ -13691,7 +13691,7 @@
       </c>
       <c r="H258" s="8"/>
     </row>
-    <row r="259" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="259" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A259" s="8" t="s">
         <v>1044</v>
       </c>
@@ -13715,7 +13715,7 @@
       </c>
       <c r="H259" s="8"/>
     </row>
-    <row r="260" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="260" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A260" s="8" t="s">
         <v>1048</v>
       </c>
@@ -13739,7 +13739,7 @@
       </c>
       <c r="H260" s="8"/>
     </row>
-    <row r="261" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="261" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A261" s="8" t="s">
         <v>1052</v>
       </c>
@@ -13789,7 +13789,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="263" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="263" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A263" s="8" t="s">
         <v>1060</v>
       </c>
@@ -13813,7 +13813,7 @@
       </c>
       <c r="H263" s="8"/>
     </row>
-    <row r="264" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="264" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A264" s="8" t="s">
         <v>1064</v>
       </c>
@@ -13837,7 +13837,7 @@
       </c>
       <c r="H264" s="8"/>
     </row>
-    <row r="265" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="265" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A265" s="8" t="s">
         <v>1068</v>
       </c>
@@ -13887,7 +13887,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="267" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="267" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A267" s="8" t="s">
         <v>1076</v>
       </c>
@@ -13963,7 +13963,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="270" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="270" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A270" s="8" t="s">
         <v>1088</v>
       </c>
@@ -13987,7 +13987,7 @@
       </c>
       <c r="H270" s="8"/>
     </row>
-    <row r="271" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="271" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A271" s="8" t="s">
         <v>1092</v>
       </c>
@@ -14011,7 +14011,7 @@
       </c>
       <c r="H271" s="8"/>
     </row>
-    <row r="272" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="272" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A272" s="8" t="s">
         <v>1097</v>
       </c>
@@ -14034,7 +14034,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="273" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="273" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A273" s="8" t="s">
         <v>1101</v>
       </c>
@@ -14057,7 +14057,7 @@
         <v>1104</v>
       </c>
     </row>
-    <row r="274" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="274" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A274" s="8" t="s">
         <v>1105</v>
       </c>
@@ -14080,7 +14080,7 @@
         <v>1108</v>
       </c>
     </row>
-    <row r="275" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="275" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A275" s="8" t="s">
         <v>1109</v>
       </c>
@@ -14103,7 +14103,7 @@
         <v>1111</v>
       </c>
     </row>
-    <row r="276" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="276" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A276" s="8" t="s">
         <v>1112</v>
       </c>
@@ -14126,7 +14126,7 @@
         <v>1115</v>
       </c>
     </row>
-    <row r="277" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="277" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A277" s="8" t="s">
         <v>1116</v>
       </c>
@@ -14175,7 +14175,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="279" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="279" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A279" s="8" t="s">
         <v>1124</v>
       </c>
@@ -14198,7 +14198,7 @@
         <v>1127</v>
       </c>
     </row>
-    <row r="280" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="280" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A280" s="8" t="s">
         <v>1128</v>
       </c>
@@ -14247,7 +14247,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="282" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="282" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A282" s="8" t="s">
         <v>1136</v>
       </c>
@@ -14296,7 +14296,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="284" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="284" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A284" s="8" t="s">
         <v>1144</v>
       </c>
@@ -14319,7 +14319,7 @@
         <v>1147</v>
       </c>
     </row>
-    <row r="285" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="285" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A285" s="8" t="s">
         <v>1148</v>
       </c>
@@ -14342,7 +14342,7 @@
         <v>1151</v>
       </c>
     </row>
-    <row r="286" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="286" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A286" s="8" t="s">
         <v>1152</v>
       </c>
@@ -14417,7 +14417,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="289" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="289" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A289" s="8" t="s">
         <v>1164</v>
       </c>
@@ -14466,7 +14466,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="291" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="291" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A291" s="8" t="s">
         <v>1172</v>
       </c>
@@ -14489,7 +14489,7 @@
         <v>1175</v>
       </c>
     </row>
-    <row r="292" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="292" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A292" s="8" t="s">
         <v>1176</v>
       </c>
@@ -14512,7 +14512,7 @@
         <v>1179</v>
       </c>
     </row>
-    <row r="293" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="293" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A293" s="8" t="s">
         <v>1180</v>
       </c>
@@ -14535,7 +14535,7 @@
         <v>1183</v>
       </c>
     </row>
-    <row r="294" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="294" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A294" s="8" t="s">
         <v>1184</v>
       </c>
@@ -14558,7 +14558,7 @@
         <v>1187</v>
       </c>
     </row>
-    <row r="295" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="295" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A295" s="8" t="s">
         <v>1188</v>
       </c>
@@ -14581,7 +14581,7 @@
         <v>1191</v>
       </c>
     </row>
-    <row r="296" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="296" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A296" s="8" t="s">
         <v>1192</v>
       </c>
@@ -14604,7 +14604,7 @@
         <v>1195</v>
       </c>
     </row>
-    <row r="297" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="297" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A297" s="8" t="s">
         <v>1196</v>
       </c>
@@ -14705,7 +14705,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="301" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="301" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A301" s="8" t="s">
         <v>1211</v>
       </c>
@@ -14728,7 +14728,7 @@
         <v>1214</v>
       </c>
     </row>
-    <row r="302" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="302" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A302" s="8" t="s">
         <v>1215</v>
       </c>
@@ -14829,7 +14829,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="306" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="306" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A306" s="8" t="s">
         <v>1231</v>
       </c>
@@ -14852,7 +14852,7 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="307" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="307" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A307" s="8" t="s">
         <v>1235</v>
       </c>
@@ -14875,7 +14875,7 @@
         <v>1238</v>
       </c>
     </row>
-    <row r="308" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="308" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A308" s="8" t="s">
         <v>1239</v>
       </c>
@@ -14924,7 +14924,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="310" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="310" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A310" s="8" t="s">
         <v>1247</v>
       </c>
@@ -14973,7 +14973,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="312" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="312" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A312" s="8" t="s">
         <v>1255</v>
       </c>
@@ -14996,7 +14996,7 @@
         <v>1258</v>
       </c>
     </row>
-    <row r="313" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="313" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A313" s="8" t="s">
         <v>1259</v>
       </c>
@@ -15019,7 +15019,7 @@
         <v>1262</v>
       </c>
     </row>
-    <row r="314" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="314" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A314" s="8" t="s">
         <v>1263</v>
       </c>
@@ -15042,7 +15042,7 @@
         <v>1266</v>
       </c>
     </row>
-    <row r="315" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="315" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A315" s="8" t="s">
         <v>1267</v>
       </c>
@@ -15065,7 +15065,7 @@
         <v>1270</v>
       </c>
     </row>
-    <row r="316" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="316" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A316" s="8" t="s">
         <v>1271</v>
       </c>
@@ -15088,7 +15088,7 @@
         <v>1274</v>
       </c>
     </row>
-    <row r="317" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="317" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A317" s="8" t="s">
         <v>1275</v>
       </c>
@@ -15111,7 +15111,7 @@
         <v>1278</v>
       </c>
     </row>
-    <row r="318" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="318" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A318" s="8" t="s">
         <v>1279</v>
       </c>
@@ -15134,7 +15134,7 @@
         <v>1282</v>
       </c>
     </row>
-    <row r="319" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="319" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A319" s="8" t="s">
         <v>1283</v>
       </c>
@@ -15157,7 +15157,7 @@
         <v>1286</v>
       </c>
     </row>
-    <row r="320" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="320" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A320" s="8" t="s">
         <v>1287</v>
       </c>
@@ -15232,7 +15232,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="323" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="323" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A323" s="8" t="s">
         <v>1297</v>
       </c>
@@ -15255,7 +15255,7 @@
         <v>1300</v>
       </c>
     </row>
-    <row r="324" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="324" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A324" s="8" t="s">
         <v>1301</v>
       </c>
@@ -15304,7 +15304,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="326" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="326" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A326" s="8" t="s">
         <v>1309</v>
       </c>
@@ -15327,7 +15327,7 @@
         <v>1311</v>
       </c>
     </row>
-    <row r="327" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="327" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A327" s="8" t="s">
         <v>1312</v>
       </c>
@@ -15480,7 +15480,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="333" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="333" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A333" s="8" t="s">
         <v>1335</v>
       </c>
@@ -15503,7 +15503,7 @@
         <v>1338</v>
       </c>
     </row>
-    <row r="334" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="334" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A334" s="8" t="s">
         <v>1339</v>
       </c>
@@ -15526,7 +15526,7 @@
         <v>1341</v>
       </c>
     </row>
-    <row r="335" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="335" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A335" s="8" t="s">
         <v>1342</v>
       </c>
@@ -15575,7 +15575,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="337" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="337" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A337" s="8" t="s">
         <v>1350</v>
       </c>
@@ -15598,7 +15598,7 @@
         <v>1353</v>
       </c>
     </row>
-    <row r="338" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="338" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A338" s="8" t="s">
         <v>1354</v>
       </c>
@@ -15647,7 +15647,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="340" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="340" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A340" s="8" t="s">
         <v>1362</v>
       </c>
@@ -15696,7 +15696,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="342" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="342" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A342" s="8" t="s">
         <v>1370</v>
       </c>
@@ -15719,7 +15719,7 @@
         <v>1372</v>
       </c>
     </row>
-    <row r="343" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="343" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A343" s="8" t="s">
         <v>1373</v>
       </c>
@@ -15794,7 +15794,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="346" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="346" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A346" s="8" t="s">
         <v>1384</v>
       </c>
@@ -15817,7 +15817,7 @@
         <v>1387</v>
       </c>
     </row>
-    <row r="347" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="347" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A347" s="8" t="s">
         <v>1388</v>
       </c>
@@ -15840,7 +15840,7 @@
         <v>1391</v>
       </c>
     </row>
-    <row r="348" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="348" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A348" s="8" t="s">
         <v>1392</v>
       </c>
@@ -15863,7 +15863,7 @@
         <v>1395</v>
       </c>
     </row>
-    <row r="349" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="349" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A349" s="8" t="s">
         <v>1396</v>
       </c>
@@ -15886,7 +15886,7 @@
         <v>1399</v>
       </c>
     </row>
-    <row r="350" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="350" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A350" s="8" t="s">
         <v>1400</v>
       </c>
@@ -15909,7 +15909,7 @@
         <v>1404</v>
       </c>
     </row>
-    <row r="351" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="351" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A351" s="8" t="s">
         <v>1405</v>
       </c>
@@ -15932,7 +15932,7 @@
         <v>1407</v>
       </c>
     </row>
-    <row r="352" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="352" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A352" s="8" t="s">
         <v>1408</v>
       </c>
@@ -15955,7 +15955,7 @@
         <v>1411</v>
       </c>
     </row>
-    <row r="353" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="353" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A353" s="8" t="s">
         <v>1412</v>
       </c>
@@ -15978,7 +15978,7 @@
         <v>1415</v>
       </c>
     </row>
-    <row r="354" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="354" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A354" s="8" t="s">
         <v>1416</v>
       </c>
@@ -16001,7 +16001,7 @@
         <v>1419</v>
       </c>
     </row>
-    <row r="355" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="355" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A355" s="8" t="s">
         <v>1420</v>
       </c>
@@ -16024,7 +16024,7 @@
         <v>1423</v>
       </c>
     </row>
-    <row r="356" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="356" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A356" s="8" t="s">
         <v>1424</v>
       </c>
@@ -16047,7 +16047,7 @@
         <v>1427</v>
       </c>
     </row>
-    <row r="357" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="357" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A357" s="8" t="s">
         <v>1428</v>
       </c>
@@ -16070,7 +16070,7 @@
         <v>1431</v>
       </c>
     </row>
-    <row r="358" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="358" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A358" s="8" t="s">
         <v>1432</v>
       </c>
@@ -16093,7 +16093,7 @@
         <v>1435</v>
       </c>
     </row>
-    <row r="359" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="359" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A359" s="8" t="s">
         <v>1436</v>
       </c>
@@ -16116,7 +16116,7 @@
         <v>1439</v>
       </c>
     </row>
-    <row r="360" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="360" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A360" s="8" t="s">
         <v>1440</v>
       </c>
@@ -16139,7 +16139,7 @@
         <v>1443</v>
       </c>
     </row>
-    <row r="361" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="361" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A361" s="8" t="s">
         <v>1444</v>
       </c>
@@ -16162,7 +16162,7 @@
         <v>1447</v>
       </c>
     </row>
-    <row r="362" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="362" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A362" s="8" t="s">
         <v>1448</v>
       </c>
@@ -16185,7 +16185,7 @@
         <v>1451</v>
       </c>
     </row>
-    <row r="363" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="363" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A363" s="8" t="s">
         <v>1452</v>
       </c>
@@ -16208,7 +16208,7 @@
         <v>1455</v>
       </c>
     </row>
-    <row r="364" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="364" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A364" s="8" t="s">
         <v>1456</v>
       </c>
@@ -16257,7 +16257,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="366" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="366" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A366" s="8" t="s">
         <v>1465</v>
       </c>
@@ -16280,7 +16280,7 @@
         <v>1468</v>
       </c>
     </row>
-    <row r="367" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="367" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A367" s="8" t="s">
         <v>1469</v>
       </c>
@@ -16303,7 +16303,7 @@
         <v>1472</v>
       </c>
     </row>
-    <row r="368" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="368" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A368" s="8" t="s">
         <v>1473</v>
       </c>
@@ -16352,7 +16352,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="370" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="370" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A370" s="8" t="s">
         <v>1481</v>
       </c>
@@ -16375,7 +16375,7 @@
         <v>1484</v>
       </c>
     </row>
-    <row r="371" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="371" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A371" s="8" t="s">
         <v>1485</v>
       </c>
@@ -16398,7 +16398,7 @@
         <v>1488</v>
       </c>
     </row>
-    <row r="372" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="372" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A372" s="8" t="s">
         <v>1489</v>
       </c>
@@ -16447,7 +16447,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="374" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="374" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A374" s="8" t="s">
         <v>1497</v>
       </c>
@@ -16470,7 +16470,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="375" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="375" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A375" s="8" t="s">
         <v>1501</v>
       </c>
@@ -16545,7 +16545,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="378" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="378" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A378" s="8" t="s">
         <v>1513</v>
       </c>
@@ -16594,7 +16594,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="380" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="380" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A380" s="8" t="s">
         <v>1520</v>
       </c>
@@ -16617,7 +16617,7 @@
         <v>1523</v>
       </c>
     </row>
-    <row r="381" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="381" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A381" s="8" t="s">
         <v>1524</v>
       </c>
@@ -16666,7 +16666,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="383" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="383" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A383" s="8" t="s">
         <v>1532</v>
       </c>
@@ -16689,7 +16689,7 @@
         <v>1534</v>
       </c>
     </row>
-    <row r="384" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="384" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A384" s="8" t="s">
         <v>1535</v>
       </c>
@@ -16738,7 +16738,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="386" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="386" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A386" s="8" t="s">
         <v>1543</v>
       </c>
@@ -16787,7 +16787,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="388" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="388" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A388" s="8" t="s">
         <v>1551</v>
       </c>
@@ -16888,7 +16888,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="392" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="392" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A392" s="8" t="s">
         <v>1567</v>
       </c>
@@ -16911,7 +16911,7 @@
         <v>1570</v>
       </c>
     </row>
-    <row r="393" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="393" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A393" s="8" t="s">
         <v>1571</v>
       </c>
@@ -16934,7 +16934,7 @@
         <v>1574</v>
       </c>
     </row>
-    <row r="394" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="394" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A394" s="8" t="s">
         <v>1575</v>
       </c>
@@ -16957,7 +16957,7 @@
         <v>1578</v>
       </c>
     </row>
-    <row r="395" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="395" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A395" s="8" t="s">
         <v>1579</v>
       </c>
@@ -16980,7 +16980,7 @@
         <v>1582</v>
       </c>
     </row>
-    <row r="396" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="396" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A396" s="8" t="s">
         <v>1583</v>
       </c>
@@ -17029,7 +17029,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="398" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="398" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A398" s="8" t="s">
         <v>1591</v>
       </c>
@@ -17052,7 +17052,7 @@
         <v>1594</v>
       </c>
     </row>
-    <row r="399" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="399" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A399" s="8" t="s">
         <v>1595</v>
       </c>
@@ -17101,7 +17101,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="401" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="401" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A401" s="8" t="s">
         <v>1603</v>
       </c>
@@ -17124,7 +17124,7 @@
         <v>1606</v>
       </c>
     </row>
-    <row r="402" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="402" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A402" s="8" t="s">
         <v>1607</v>
       </c>
@@ -17147,7 +17147,7 @@
         <v>1610</v>
       </c>
     </row>
-    <row r="403" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="403" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A403" s="8" t="s">
         <v>1611</v>
       </c>
@@ -17170,7 +17170,7 @@
         <v>1614</v>
       </c>
     </row>
-    <row r="404" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="404" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A404" s="8" t="s">
         <v>1615</v>
       </c>
@@ -17193,7 +17193,7 @@
         <v>1618</v>
       </c>
     </row>
-    <row r="405" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="405" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A405" s="8" t="s">
         <v>1619</v>
       </c>
@@ -17216,7 +17216,7 @@
         <v>1622</v>
       </c>
     </row>
-    <row r="406" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="406" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A406" s="8" t="s">
         <v>1623</v>
       </c>
@@ -17239,7 +17239,7 @@
         <v>1626</v>
       </c>
     </row>
-    <row r="407" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="407" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A407" s="8" t="s">
         <v>1627</v>
       </c>
@@ -17314,7 +17314,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="410" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="410" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A410" s="8" t="s">
         <v>1640</v>
       </c>
@@ -17337,7 +17337,7 @@
         <v>1643</v>
       </c>
     </row>
-    <row r="411" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="411" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A411" s="8" t="s">
         <v>1644</v>
       </c>
@@ -17360,7 +17360,7 @@
         <v>1647</v>
       </c>
     </row>
-    <row r="412" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="412" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A412" s="8" t="s">
         <v>1648</v>
       </c>
@@ -17409,7 +17409,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="414" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="414" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A414" s="8" t="s">
         <v>1656</v>
       </c>
@@ -17432,7 +17432,7 @@
         <v>1659</v>
       </c>
     </row>
-    <row r="415" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="415" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A415" s="8" t="s">
         <v>1660</v>
       </c>
@@ -17455,7 +17455,7 @@
         <v>1663</v>
       </c>
     </row>
-    <row r="416" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="416" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A416" s="8" t="s">
         <v>1664</v>
       </c>
@@ -17504,7 +17504,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="418" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="418" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A418" s="8" t="s">
         <v>1672</v>
       </c>
@@ -17527,7 +17527,7 @@
         <v>1675</v>
       </c>
     </row>
-    <row r="419" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="419" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A419" s="8" t="s">
         <v>1676</v>
       </c>
@@ -17550,7 +17550,7 @@
         <v>1678</v>
       </c>
     </row>
-    <row r="420" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="420" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A420" s="8" t="s">
         <v>1679</v>
       </c>
@@ -17573,7 +17573,7 @@
         <v>1682</v>
       </c>
     </row>
-    <row r="421" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="421" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A421" s="8" t="s">
         <v>1683</v>
       </c>
@@ -17596,7 +17596,7 @@
         <v>1686</v>
       </c>
     </row>
-    <row r="422" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="422" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A422" s="8" t="s">
         <v>1687</v>
       </c>
@@ -17619,7 +17619,7 @@
         <v>1690</v>
       </c>
     </row>
-    <row r="423" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="423" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A423" s="8" t="s">
         <v>1691</v>
       </c>
@@ -17668,7 +17668,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="425" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="425" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A425" s="8" t="s">
         <v>1700</v>
       </c>
@@ -17691,7 +17691,7 @@
         <v>1703</v>
       </c>
     </row>
-    <row r="426" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="426" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A426" s="8" t="s">
         <v>1704</v>
       </c>
@@ -17740,7 +17740,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="428" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="428" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A428" s="8" t="s">
         <v>1712</v>
       </c>
@@ -17763,7 +17763,7 @@
         <v>1715</v>
       </c>
     </row>
-    <row r="429" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="429" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A429" s="8" t="s">
         <v>1716</v>
       </c>
@@ -17786,7 +17786,7 @@
         <v>1719</v>
       </c>
     </row>
-    <row r="430" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="430" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A430" s="8" t="s">
         <v>1720</v>
       </c>
@@ -17835,7 +17835,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="432" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="432" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A432" s="8" t="s">
         <v>1728</v>
       </c>
@@ -17884,7 +17884,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="434" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="434" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A434" s="8" t="s">
         <v>1736</v>
       </c>
@@ -17907,7 +17907,7 @@
         <v>1739</v>
       </c>
     </row>
-    <row r="435" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="435" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A435" s="8" t="s">
         <v>1740</v>
       </c>
@@ -17930,7 +17930,7 @@
         <v>1743</v>
       </c>
     </row>
-    <row r="436" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="436" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A436" s="8" t="s">
         <v>1744</v>
       </c>
@@ -17953,7 +17953,7 @@
         <v>1747</v>
       </c>
     </row>
-    <row r="437" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="437" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A437" s="8" t="s">
         <v>1748</v>
       </c>
@@ -17976,7 +17976,7 @@
         <v>1751</v>
       </c>
     </row>
-    <row r="438" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="438" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A438" s="8" t="s">
         <v>1752</v>
       </c>
@@ -17999,7 +17999,7 @@
         <v>1755</v>
       </c>
     </row>
-    <row r="439" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="439" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A439" s="8" t="s">
         <v>1756</v>
       </c>
@@ -18074,7 +18074,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="442" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="442" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A442" s="8" t="s">
         <v>1767</v>
       </c>
@@ -18097,7 +18097,7 @@
         <v>1770</v>
       </c>
     </row>
-    <row r="443" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="443" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A443" s="8" t="s">
         <v>1771</v>
       </c>
@@ -18120,7 +18120,7 @@
         <v>1774</v>
       </c>
     </row>
-    <row r="444" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="444" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A444" s="8" t="s">
         <v>1775</v>
       </c>
@@ -18143,7 +18143,7 @@
         <v>1778</v>
       </c>
     </row>
-    <row r="445" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="445" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A445" s="8" t="s">
         <v>1779</v>
       </c>
@@ -18166,7 +18166,7 @@
         <v>1782</v>
       </c>
     </row>
-    <row r="446" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="446" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A446" s="8" t="s">
         <v>1783</v>
       </c>
@@ -18215,7 +18215,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="448" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="448" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A448" s="8" t="s">
         <v>1790</v>
       </c>
@@ -18238,7 +18238,7 @@
         <v>1793</v>
       </c>
     </row>
-    <row r="449" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="449" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A449" s="8" t="s">
         <v>1794</v>
       </c>
@@ -18261,7 +18261,7 @@
         <v>1797</v>
       </c>
     </row>
-    <row r="450" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="450" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A450" s="8" t="s">
         <v>1798</v>
       </c>
@@ -18310,7 +18310,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="452" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="452" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A452" s="8" t="s">
         <v>1805</v>
       </c>
@@ -18333,7 +18333,7 @@
         <v>1808</v>
       </c>
     </row>
-    <row r="453" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="453" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A453" s="8" t="s">
         <v>1809</v>
       </c>
@@ -18356,7 +18356,7 @@
         <v>1812</v>
       </c>
     </row>
-    <row r="454" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="454" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A454" s="8" t="s">
         <v>1813</v>
       </c>
@@ -18379,7 +18379,7 @@
         <v>1816</v>
       </c>
     </row>
-    <row r="455" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="455" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A455" s="8" t="s">
         <v>1817</v>
       </c>
@@ -18402,7 +18402,7 @@
         <v>1820</v>
       </c>
     </row>
-    <row r="456" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="456" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A456" s="8" t="s">
         <v>1821</v>
       </c>
@@ -18425,7 +18425,7 @@
         <v>1824</v>
       </c>
     </row>
-    <row r="457" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="457" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A457" s="8" t="s">
         <v>1825</v>
       </c>
@@ -18448,7 +18448,7 @@
         <v>1828</v>
       </c>
     </row>
-    <row r="458" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="458" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A458" s="8" t="s">
         <v>1829</v>
       </c>
@@ -18471,7 +18471,7 @@
         <v>1832</v>
       </c>
     </row>
-    <row r="459" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="459" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A459" s="8" t="s">
         <v>1833</v>
       </c>
@@ -18494,7 +18494,7 @@
         <v>1836</v>
       </c>
     </row>
-    <row r="460" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="460" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A460" s="8" t="s">
         <v>1837</v>
       </c>
@@ -18543,7 +18543,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="462" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="462" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A462" s="8" t="s">
         <v>1845</v>
       </c>
@@ -18618,7 +18618,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="465" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="465" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A465" s="8" t="s">
         <v>1858</v>
       </c>
@@ -18641,7 +18641,7 @@
         <v>1861</v>
       </c>
     </row>
-    <row r="466" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="466" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A466" s="8" t="s">
         <v>1862</v>
       </c>
@@ -18664,7 +18664,7 @@
         <v>1865</v>
       </c>
     </row>
-    <row r="467" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="467" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A467" s="8" t="s">
         <v>1866</v>
       </c>
@@ -18687,7 +18687,7 @@
         <v>1869</v>
       </c>
     </row>
-    <row r="468" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="468" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A468" s="8" t="s">
         <v>1870</v>
       </c>
@@ -18736,7 +18736,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="470" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="470" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A470" s="8" t="s">
         <v>1878</v>
       </c>
@@ -18759,7 +18759,7 @@
         <v>1881</v>
       </c>
     </row>
-    <row r="471" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="471" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A471" s="8" t="s">
         <v>1882</v>
       </c>
@@ -18782,7 +18782,7 @@
         <v>1885</v>
       </c>
     </row>
-    <row r="472" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="472" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A472" s="8" t="s">
         <v>1886</v>
       </c>
@@ -18831,7 +18831,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="474" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="474" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A474" s="8" t="s">
         <v>1894</v>
       </c>
@@ -18854,7 +18854,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="475" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="475" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A475" s="8" t="s">
         <v>1898</v>
       </c>
@@ -18877,7 +18877,7 @@
         <v>1901</v>
       </c>
     </row>
-    <row r="476" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="476" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A476" s="8" t="s">
         <v>1902</v>
       </c>
@@ -18900,7 +18900,7 @@
         <v>1904</v>
       </c>
     </row>
-    <row r="477" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="477" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A477" s="8" t="s">
         <v>1905</v>
       </c>
@@ -19001,7 +19001,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="481" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="481" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A481" s="8" t="s">
         <v>1920</v>
       </c>
@@ -19024,7 +19024,7 @@
         <v>1923</v>
       </c>
     </row>
-    <row r="482" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="482" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A482" s="8" t="s">
         <v>1924</v>
       </c>
@@ -19047,7 +19047,7 @@
         <v>1927</v>
       </c>
     </row>
-    <row r="483" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="483" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A483" s="8" t="s">
         <v>1928</v>
       </c>
@@ -19070,7 +19070,7 @@
         <v>1931</v>
       </c>
     </row>
-    <row r="484" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="484" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A484" s="8" t="s">
         <v>1932</v>
       </c>
@@ -19093,7 +19093,7 @@
         <v>1936</v>
       </c>
     </row>
-    <row r="485" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="485" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A485" s="8" t="s">
         <v>1937</v>
       </c>
@@ -19116,7 +19116,7 @@
         <v>1939</v>
       </c>
     </row>
-    <row r="486" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="486" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A486" s="8" t="s">
         <v>1940</v>
       </c>
@@ -19139,7 +19139,7 @@
         <v>1943</v>
       </c>
     </row>
-    <row r="487" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="487" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A487" s="8" t="s">
         <v>1944</v>
       </c>
@@ -19162,7 +19162,7 @@
         <v>1947</v>
       </c>
     </row>
-    <row r="488" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="488" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A488" s="8" t="s">
         <v>1948</v>
       </c>
@@ -19185,7 +19185,7 @@
         <v>1950</v>
       </c>
     </row>
-    <row r="489" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="489" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A489" s="8" t="s">
         <v>1951</v>
       </c>
@@ -19208,7 +19208,7 @@
         <v>1954</v>
       </c>
     </row>
-    <row r="490" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="490" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A490" s="8" t="s">
         <v>1955</v>
       </c>
@@ -19231,7 +19231,7 @@
         <v>1958</v>
       </c>
     </row>
-    <row r="491" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="491" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A491" s="8" t="s">
         <v>1959</v>
       </c>
@@ -19254,7 +19254,7 @@
         <v>1962</v>
       </c>
     </row>
-    <row r="492" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="492" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A492" s="8" t="s">
         <v>1963</v>
       </c>
@@ -19277,7 +19277,7 @@
         <v>1966</v>
       </c>
     </row>
-    <row r="493" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="493" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A493" s="8" t="s">
         <v>1967</v>
       </c>
@@ -19300,7 +19300,7 @@
         <v>1970</v>
       </c>
     </row>
-    <row r="494" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="494" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A494" s="8" t="s">
         <v>1971</v>
       </c>
@@ -19323,7 +19323,7 @@
         <v>1974</v>
       </c>
     </row>
-    <row r="495" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="495" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A495" s="8" t="s">
         <v>1975</v>
       </c>
@@ -19346,7 +19346,7 @@
         <v>1978</v>
       </c>
     </row>
-    <row r="496" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="496" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A496" s="8" t="s">
         <v>1979</v>
       </c>
@@ -19369,7 +19369,7 @@
         <v>1982</v>
       </c>
     </row>
-    <row r="497" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="497" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A497" s="8" t="s">
         <v>1983</v>
       </c>
@@ -19392,7 +19392,7 @@
         <v>1986</v>
       </c>
     </row>
-    <row r="498" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="498" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A498" s="8" t="s">
         <v>1987</v>
       </c>
@@ -19415,7 +19415,7 @@
         <v>1990</v>
       </c>
     </row>
-    <row r="499" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="499" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A499" s="8" t="s">
         <v>1991</v>
       </c>
@@ -19438,7 +19438,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="500" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="500" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A500" s="8" t="s">
         <v>1995</v>
       </c>
@@ -19461,7 +19461,7 @@
         <v>1997</v>
       </c>
     </row>
-    <row r="501" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="501" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A501" s="8" t="s">
         <v>1998</v>
       </c>
@@ -19484,7 +19484,7 @@
         <v>2001</v>
       </c>
     </row>
-    <row r="502" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="502" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A502" s="8" t="s">
         <v>2002</v>
       </c>
@@ -19507,7 +19507,7 @@
         <v>2005</v>
       </c>
     </row>
-    <row r="503" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="503" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A503" s="8" t="s">
         <v>2006</v>
       </c>
@@ -19530,7 +19530,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="504" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="504" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A504" s="8" t="s">
         <v>2010</v>
       </c>
@@ -19553,7 +19553,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="505" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="505" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A505" s="8" t="s">
         <v>2014</v>
       </c>
@@ -19576,7 +19576,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="506" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="506" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A506" s="8" t="s">
         <v>2018</v>
       </c>
@@ -19599,7 +19599,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="507" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="507" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A507" s="8" t="s">
         <v>2022</v>
       </c>
@@ -19622,7 +19622,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="508" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="508" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A508" s="8" t="s">
         <v>2026</v>
       </c>
@@ -19645,7 +19645,7 @@
         <v>2029</v>
       </c>
     </row>
-    <row r="509" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="509" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A509" s="8" t="s">
         <v>2030</v>
       </c>
@@ -19668,7 +19668,7 @@
         <v>2033</v>
       </c>
     </row>
-    <row r="510" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="510" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A510" s="8" t="s">
         <v>2034</v>
       </c>
@@ -19691,7 +19691,7 @@
         <v>2037</v>
       </c>
     </row>
-    <row r="511" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="511" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A511" s="8" t="s">
         <v>2038</v>
       </c>
@@ -19714,7 +19714,7 @@
         <v>2040</v>
       </c>
     </row>
-    <row r="512" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="512" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A512" s="8" t="s">
         <v>2041</v>
       </c>
@@ -19763,7 +19763,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="514" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="514" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A514" s="8" t="s">
         <v>2049</v>
       </c>
@@ -19786,7 +19786,7 @@
         <v>2052</v>
       </c>
     </row>
-    <row r="515" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="515" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A515" s="8" t="s">
         <v>2053</v>
       </c>
@@ -19809,7 +19809,7 @@
         <v>2056</v>
       </c>
     </row>
-    <row r="516" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="516" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A516" s="8" t="s">
         <v>2057</v>
       </c>
@@ -19832,7 +19832,7 @@
         <v>2060</v>
       </c>
     </row>
-    <row r="517" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="517" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A517" s="8" t="s">
         <v>2061</v>
       </c>
@@ -19855,7 +19855,7 @@
         <v>2064</v>
       </c>
     </row>
-    <row r="518" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="518" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A518" s="8" t="s">
         <v>2065</v>
       </c>
@@ -19878,7 +19878,7 @@
         <v>2068</v>
       </c>
     </row>
-    <row r="519" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="519" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A519" s="8" t="s">
         <v>2069</v>
       </c>
@@ -19901,7 +19901,7 @@
         <v>2072</v>
       </c>
     </row>
-    <row r="520" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="520" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A520" s="8" t="s">
         <v>2073</v>
       </c>
@@ -19924,7 +19924,7 @@
         <v>2076</v>
       </c>
     </row>
-    <row r="521" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="521" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A521" s="8" t="s">
         <v>2077</v>
       </c>
@@ -19947,7 +19947,7 @@
         <v>2080</v>
       </c>
     </row>
-    <row r="522" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="522" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A522" s="8" t="s">
         <v>2081</v>
       </c>
@@ -19970,7 +19970,7 @@
         <v>2084</v>
       </c>
     </row>
-    <row r="523" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="523" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A523" s="8" t="s">
         <v>2085</v>
       </c>
@@ -19993,7 +19993,7 @@
         <v>2088</v>
       </c>
     </row>
-    <row r="524" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="524" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A524" s="8" t="s">
         <v>2089</v>
       </c>
@@ -20016,7 +20016,7 @@
         <v>2092</v>
       </c>
     </row>
-    <row r="525" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="525" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A525" s="8" t="s">
         <v>2093</v>
       </c>
@@ -20039,7 +20039,7 @@
         <v>2096</v>
       </c>
     </row>
-    <row r="526" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="526" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A526" s="8" t="s">
         <v>2097</v>
       </c>
@@ -20062,7 +20062,7 @@
         <v>2100</v>
       </c>
     </row>
-    <row r="527" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="527" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A527" s="8" t="s">
         <v>2101</v>
       </c>
@@ -20111,7 +20111,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="529" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="529" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A529" s="8" t="s">
         <v>2109</v>
       </c>
@@ -20134,7 +20134,7 @@
         <v>2112</v>
       </c>
     </row>
-    <row r="530" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="530" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A530" s="8" t="s">
         <v>2113</v>
       </c>
@@ -20157,7 +20157,7 @@
         <v>2116</v>
       </c>
     </row>
-    <row r="531" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="531" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A531" s="8" t="s">
         <v>2117</v>
       </c>
@@ -20180,7 +20180,7 @@
         <v>2120</v>
       </c>
     </row>
-    <row r="532" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="532" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A532" s="8" t="s">
         <v>2121</v>
       </c>
@@ -20203,7 +20203,7 @@
         <v>2124</v>
       </c>
     </row>
-    <row r="533" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="533" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A533" s="8" t="s">
         <v>2125</v>
       </c>
@@ -20226,7 +20226,7 @@
         <v>2128</v>
       </c>
     </row>
-    <row r="534" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="534" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A534" s="8" t="s">
         <v>2129</v>
       </c>
@@ -20249,7 +20249,7 @@
         <v>2132</v>
       </c>
     </row>
-    <row r="535" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="535" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A535" s="8" t="s">
         <v>2133</v>
       </c>
@@ -20272,7 +20272,7 @@
         <v>2136</v>
       </c>
     </row>
-    <row r="536" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="536" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A536" s="8" t="s">
         <v>2137</v>
       </c>
@@ -20295,7 +20295,7 @@
         <v>2140</v>
       </c>
     </row>
-    <row r="537" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="537" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A537" s="8" t="s">
         <v>2141</v>
       </c>
@@ -20344,7 +20344,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="539" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="539" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A539" s="8" t="s">
         <v>2149</v>
       </c>
@@ -20367,7 +20367,7 @@
         <v>2152</v>
       </c>
     </row>
-    <row r="540" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="540" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A540" s="8" t="s">
         <v>2153</v>
       </c>
@@ -20390,7 +20390,7 @@
         <v>2156</v>
       </c>
     </row>
-    <row r="541" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="541" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A541" s="8" t="s">
         <v>2157</v>
       </c>
@@ -20413,7 +20413,7 @@
         <v>2160</v>
       </c>
     </row>
-    <row r="542" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="542" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A542" s="8" t="s">
         <v>2161</v>
       </c>
@@ -20436,7 +20436,7 @@
         <v>2164</v>
       </c>
     </row>
-    <row r="543" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="543" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A543" s="8" t="s">
         <v>2165</v>
       </c>
@@ -20459,7 +20459,7 @@
         <v>2168</v>
       </c>
     </row>
-    <row r="544" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="544" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A544" s="8" t="s">
         <v>2169</v>
       </c>
@@ -20482,7 +20482,7 @@
         <v>2173</v>
       </c>
     </row>
-    <row r="545" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="545" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A545" s="8" t="s">
         <v>2174</v>
       </c>
@@ -20505,7 +20505,7 @@
         <v>2176</v>
       </c>
     </row>
-    <row r="546" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="546" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A546" s="8" t="s">
         <v>2177</v>
       </c>
@@ -20528,7 +20528,7 @@
         <v>2180</v>
       </c>
     </row>
-    <row r="547" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="547" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A547" s="8" t="s">
         <v>2181</v>
       </c>
@@ -20551,7 +20551,7 @@
         <v>2184</v>
       </c>
     </row>
-    <row r="548" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="548" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A548" s="8" t="s">
         <v>2185</v>
       </c>
@@ -20574,7 +20574,7 @@
         <v>2188</v>
       </c>
     </row>
-    <row r="549" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="549" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A549" s="8" t="s">
         <v>2189</v>
       </c>
@@ -20597,7 +20597,7 @@
         <v>2192</v>
       </c>
     </row>
-    <row r="550" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="550" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A550" s="8" t="s">
         <v>2193</v>
       </c>
@@ -20620,7 +20620,7 @@
         <v>2196</v>
       </c>
     </row>
-    <row r="551" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="551" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A551" s="8" t="s">
         <v>2197</v>
       </c>
@@ -20669,7 +20669,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="553" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="553" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A553" s="8" t="s">
         <v>2205</v>
       </c>
@@ -20692,7 +20692,7 @@
         <v>2208</v>
       </c>
     </row>
-    <row r="554" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="554" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A554" s="8" t="s">
         <v>2209</v>
       </c>
@@ -20715,7 +20715,7 @@
         <v>2212</v>
       </c>
     </row>
-    <row r="555" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="555" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A555" s="8" t="s">
         <v>2213</v>
       </c>
@@ -20738,7 +20738,7 @@
         <v>2216</v>
       </c>
     </row>
-    <row r="556" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="556" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A556" s="8" t="s">
         <v>2217</v>
       </c>
@@ -20761,7 +20761,7 @@
         <v>2220</v>
       </c>
     </row>
-    <row r="557" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="557" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A557" s="8" t="s">
         <v>2221</v>
       </c>
@@ -20784,7 +20784,7 @@
         <v>2224</v>
       </c>
     </row>
-    <row r="558" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="558" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A558" s="8" t="s">
         <v>2225</v>
       </c>
@@ -20807,7 +20807,7 @@
         <v>2228</v>
       </c>
     </row>
-    <row r="559" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="559" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A559" s="8" t="s">
         <v>2229</v>
       </c>
@@ -20830,7 +20830,7 @@
         <v>2232</v>
       </c>
     </row>
-    <row r="560" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="560" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A560" s="8" t="s">
         <v>2233</v>
       </c>
@@ -20853,7 +20853,7 @@
         <v>2236</v>
       </c>
     </row>
-    <row r="561" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="561" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A561" s="8" t="s">
         <v>2237</v>
       </c>
@@ -20876,7 +20876,7 @@
         <v>2239</v>
       </c>
     </row>
-    <row r="562" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="562" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A562" s="8" t="s">
         <v>2240</v>
       </c>
@@ -20899,7 +20899,7 @@
         <v>2242</v>
       </c>
     </row>
-    <row r="563" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="563" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A563" s="8" t="s">
         <v>2243</v>
       </c>
@@ -20922,7 +20922,7 @@
         <v>2245</v>
       </c>
     </row>
-    <row r="564" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="564" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A564" s="8" t="s">
         <v>2246</v>
       </c>
@@ -20945,7 +20945,7 @@
         <v>2249</v>
       </c>
     </row>
-    <row r="565" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="565" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A565" s="8" t="s">
         <v>2250</v>
       </c>
@@ -20968,7 +20968,7 @@
         <v>2253</v>
       </c>
     </row>
-    <row r="566" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="566" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A566" s="8" t="s">
         <v>2254</v>
       </c>
@@ -21017,7 +21017,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="568" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="568" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A568" s="8" t="s">
         <v>2262</v>
       </c>
@@ -21040,7 +21040,7 @@
         <v>2265</v>
       </c>
     </row>
-    <row r="569" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="569" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A569" s="8" t="s">
         <v>2266</v>
       </c>
@@ -21063,7 +21063,7 @@
         <v>2269</v>
       </c>
     </row>
-    <row r="570" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="570" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A570" s="8" t="s">
         <v>2270</v>
       </c>
@@ -21086,7 +21086,7 @@
         <v>2273</v>
       </c>
     </row>
-    <row r="571" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="571" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A571" s="8" t="s">
         <v>2274</v>
       </c>
@@ -21135,7 +21135,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="573" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="573" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A573" s="8" t="s">
         <v>2282</v>
       </c>
@@ -21159,13 +21159,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:Z573">
-    <filterColumn colId="7">
-      <filters>
-        <filter val="x"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A3:Z573"/>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" display="link spreadsheet 570 từ vựng "/>
   </hyperlinks>
